--- a/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-medication-substitution-not-allowed-reason-cs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-medication-substitution-not-allowed-reason-cs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationSubstitutionNotAllowedReason_CS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationSubstitutionNotAllowedReason_CS</t>
   </si>
   <si>
     <t>Identifier</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-medication-substitution-not-allowed-reason-cs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-medication-substitution-not-allowed-reason-cs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationSubstitutionNotAllowedReason_CS</t>
+    <t>urn:oid:1.2.392.100495.20.2.41</t>
   </si>
   <si>
     <t>Identifier</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-medication-substitution-not-allowed-reason-cs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-medication-substitution-not-allowed-reason-cs.xlsx
@@ -84,7 +84,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-medication-substitution-not-allowed-reason-cs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-medication-substitution-not-allowed-reason-cs.xlsx
@@ -84,7 +84,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>
